--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,13 +11,113 @@
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+  <si>
+    <t>lp.</t>
+  </si>
+  <si>
+    <t>Sygnał ponownej optymalizacji</t>
+  </si>
+  <si>
+    <t>Średni zysk trzech testów [USD]</t>
+  </si>
+  <si>
+    <t>brak</t>
+  </si>
+  <si>
+    <t>Upływ czasu</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Efekt ostanich </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> transakcji</t>
+    </r>
+  </si>
+  <si>
+    <t>Expert Advisor</t>
+  </si>
+  <si>
+    <t>Sredni zysk [USD]</t>
+  </si>
+  <si>
+    <t>TimeOpt1</t>
+  </si>
+  <si>
+    <t>NoOpt1</t>
+  </si>
+  <si>
+    <t>NoOpt2</t>
+  </si>
+  <si>
+    <t>NoOpt3</t>
+  </si>
+  <si>
+    <t>TimeOpt2</t>
+  </si>
+  <si>
+    <t>TimeOpt3</t>
+  </si>
+  <si>
+    <t>ResultOpt1</t>
+  </si>
+  <si>
+    <t>ResultOpt2</t>
+  </si>
+  <si>
+    <t>ResultOpt3</t>
+  </si>
+  <si>
+    <t>Rodzaj transakcji</t>
+  </si>
+  <si>
+    <t>Data otwarcia</t>
+  </si>
+  <si>
+    <t>Data zamknięcia</t>
+  </si>
+  <si>
+    <t>Zysk/strata [USD]</t>
+  </si>
+  <si>
+    <t>Zysk/strata [pkt]</t>
+  </si>
+  <si>
+    <t>Sredni zysk [pkt]</t>
+  </si>
+  <si>
+    <t>Średni zysk trzech testów [pkt]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +125,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -42,25 +169,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +295,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,7 +367,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -343,36 +540,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="9" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="14" width="15.140625" customWidth="1"/>
+    <col min="15" max="16" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="K2" s="7">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="K3" s="8">
+        <v>2</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="K4" s="7">
+        <v>3</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="K5" s="8">
+        <v>4</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="K6" s="7">
+        <v>5</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="K7" s="8">
+        <v>6</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="2">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="K8" s="7">
+        <v>7</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="K9" s="8">
+        <v>8</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="2">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="K10" s="7">
+        <v>9</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K11" s="8">
+        <v>10</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K12" s="7">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K13" s="8">
+        <v>12</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K14" s="7">
+        <v>13</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K15" s="8">
+        <v>14</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K16" s="7">
+        <v>15</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K17" s="8">
+        <v>16</v>
+      </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K18" s="7">
+        <v>17</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K19" s="8">
+        <v>18</v>
+      </c>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K20" s="7">
+        <v>19</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
